--- a/Regresi_Statistik_Excel.xlsx
+++ b/Regresi_Statistik_Excel.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMIADX\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="bener" sheetId="3" r:id="rId2"/>
+    <sheet name="bener no 1" sheetId="4" r:id="rId3"/>
+    <sheet name="old" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +124,372 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>524629</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5401429" cy="6754168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>305648</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="0"/>
+          <a:ext cx="6077798" cy="6773220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>505605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982450" y="0"/>
+          <a:ext cx="5591955" cy="3953427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524799</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6620799" cy="6839905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600982</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="0"/>
+          <a:ext cx="6496957" cy="6363588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>496256</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13154025" y="809625"/>
+          <a:ext cx="6849431" cy="2915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476997</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5353797" cy="6430272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>534143</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="0"/>
+          <a:ext cx="5325218" cy="6496957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>391227</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11210925" y="0"/>
+          <a:ext cx="5029902" cy="4515480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -162,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +567,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +602,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,13 +815,13 @@
         <v>9.5</v>
       </c>
       <c r="D2">
-        <v>0.1156</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="E2">
         <v>3.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,16 +829,16 @@
         <v>0.35</v>
       </c>
       <c r="C3">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D3">
         <v>0.1225</v>
       </c>
       <c r="E3">
-        <v>3.255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.2549999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,16 +846,16 @@
         <v>0.37</v>
       </c>
       <c r="C4">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D4">
-        <v>0.1369</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="E4">
-        <v>3.219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.2189999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -486,16 +863,16 @@
         <v>0.41</v>
       </c>
       <c r="C5">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D5">
         <v>0.1681</v>
       </c>
       <c r="E5">
-        <v>3.362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -506,13 +883,13 @@
         <v>7.3</v>
       </c>
       <c r="D6">
-        <v>0.1849</v>
+        <v>0.18490000000000001</v>
       </c>
       <c r="E6">
-        <v>3.139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>3.1389999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -523,13 +900,13 @@
         <v>6.2</v>
       </c>
       <c r="D7">
-        <v>0.1369</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="E7">
         <v>2.294</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -543,10 +920,10 @@
         <v>0.1764</v>
       </c>
       <c r="E8">
-        <v>2.772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.7719999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -557,38 +934,38 @@
         <v>6.9</v>
       </c>
       <c r="D9">
-        <v>0.2916</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="E9">
         <v>3.726</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -596,4 +973,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I18:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>